--- a/Code/Results/Cases/Case_0_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_106/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.633723989058383</v>
+        <v>8.352934928600247</v>
       </c>
       <c r="D2">
-        <v>4.241331134531874</v>
+        <v>6.874829620302777</v>
       </c>
       <c r="E2">
-        <v>7.258018875350055</v>
+        <v>12.52404744410618</v>
       </c>
       <c r="F2">
-        <v>29.13833383058346</v>
+        <v>43.06867727401279</v>
       </c>
       <c r="G2">
-        <v>37.67072971186158</v>
+        <v>52.01908916136161</v>
       </c>
       <c r="H2">
-        <v>12.37208094390476</v>
+        <v>20.1201661971888</v>
       </c>
       <c r="I2">
-        <v>21.79031012196912</v>
+        <v>33.26187852372878</v>
       </c>
       <c r="J2">
-        <v>5.845934729789772</v>
+        <v>10.37567679562269</v>
       </c>
       <c r="K2">
-        <v>18.94513048176098</v>
+        <v>18.75880835312677</v>
       </c>
       <c r="L2">
-        <v>5.707029967386474</v>
+        <v>10.14928694085233</v>
       </c>
       <c r="M2">
-        <v>15.32811103774735</v>
+        <v>20.11147755274974</v>
       </c>
       <c r="N2">
-        <v>13.21113950331166</v>
+        <v>20.08572880150762</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.460236474253128</v>
+        <v>8.33798645102128</v>
       </c>
       <c r="D3">
-        <v>4.134624856362169</v>
+        <v>6.865644555026096</v>
       </c>
       <c r="E3">
-        <v>7.234997338839665</v>
+        <v>12.54265619072867</v>
       </c>
       <c r="F3">
-        <v>28.69847776921124</v>
+        <v>43.14347315040508</v>
       </c>
       <c r="G3">
-        <v>36.89126428419623</v>
+        <v>52.08742958452556</v>
       </c>
       <c r="H3">
-        <v>12.35309074890362</v>
+        <v>20.17643991615019</v>
       </c>
       <c r="I3">
-        <v>21.55218567264014</v>
+        <v>33.33296213345718</v>
       </c>
       <c r="J3">
-        <v>5.892929131937875</v>
+        <v>10.39733661833669</v>
       </c>
       <c r="K3">
-        <v>17.80718213842187</v>
+        <v>18.48488214230177</v>
       </c>
       <c r="L3">
-        <v>5.743455413884426</v>
+        <v>10.16776491525243</v>
       </c>
       <c r="M3">
-        <v>14.66412588369399</v>
+        <v>20.01908539897646</v>
       </c>
       <c r="N3">
-        <v>13.42444687406211</v>
+        <v>20.14993719565026</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.353015117286775</v>
+        <v>8.329886249732555</v>
       </c>
       <c r="D4">
-        <v>4.068693867836355</v>
+        <v>6.860560160050184</v>
       </c>
       <c r="E4">
-        <v>7.223459912505422</v>
+        <v>12.55536838191547</v>
       </c>
       <c r="F4">
-        <v>28.45202993990043</v>
+        <v>43.19922430488381</v>
       </c>
       <c r="G4">
-        <v>36.44656170481183</v>
+        <v>52.14378767728983</v>
       </c>
       <c r="H4">
-        <v>12.35096787353662</v>
+        <v>20.21457913421916</v>
       </c>
       <c r="I4">
-        <v>21.42389934673825</v>
+        <v>33.38367162493798</v>
       </c>
       <c r="J4">
-        <v>5.92322899453449</v>
+        <v>10.41144210932979</v>
       </c>
       <c r="K4">
-        <v>17.0773458480395</v>
+        <v>18.31800532289172</v>
       </c>
       <c r="L4">
-        <v>5.76710043720736</v>
+        <v>10.17982591920729</v>
       </c>
       <c r="M4">
-        <v>14.24721555601907</v>
+        <v>19.96525922771995</v>
       </c>
       <c r="N4">
-        <v>13.55844595387893</v>
+        <v>20.19128665618568</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.309204212404266</v>
+        <v>8.326858791069732</v>
       </c>
       <c r="D5">
-        <v>4.04175367885176</v>
+        <v>6.858629140813188</v>
       </c>
       <c r="E5">
-        <v>7.219402458445839</v>
+        <v>12.5608726453083</v>
       </c>
       <c r="F5">
-        <v>28.35744806843114</v>
+        <v>43.22440848078037</v>
       </c>
       <c r="G5">
-        <v>36.27380489337975</v>
+        <v>52.17036290358508</v>
       </c>
       <c r="H5">
-        <v>12.35240857599432</v>
+        <v>20.23102188462809</v>
       </c>
       <c r="I5">
-        <v>21.37601619350602</v>
+        <v>33.40610849431925</v>
       </c>
       <c r="J5">
-        <v>5.935939367841179</v>
+        <v>10.4173934506012</v>
       </c>
       <c r="K5">
-        <v>16.77229275733706</v>
+        <v>18.25041322428799</v>
       </c>
       <c r="L5">
-        <v>5.777057312963578</v>
+        <v>10.18492123893362</v>
       </c>
       <c r="M5">
-        <v>14.07522922593781</v>
+        <v>19.94407039834718</v>
       </c>
       <c r="N5">
-        <v>13.61383485148166</v>
+        <v>20.20862246292575</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.301924148105024</v>
+        <v>8.326372663227884</v>
       </c>
       <c r="D6">
-        <v>4.037276826205112</v>
+        <v>6.858317043860901</v>
       </c>
       <c r="E6">
-        <v>7.218767354587255</v>
+        <v>12.56180620320012</v>
       </c>
       <c r="F6">
-        <v>28.34209295471312</v>
+        <v>43.2287390002342</v>
       </c>
       <c r="G6">
-        <v>36.24562757398957</v>
+        <v>52.17499330104951</v>
       </c>
       <c r="H6">
-        <v>12.35278437188922</v>
+        <v>20.23380655394692</v>
       </c>
       <c r="I6">
-        <v>21.36832718458322</v>
+        <v>33.40994104300375</v>
       </c>
       <c r="J6">
-        <v>5.93807182605279</v>
+        <v>10.41839395603495</v>
       </c>
       <c r="K6">
-        <v>16.72118413856403</v>
+        <v>18.23921682427024</v>
       </c>
       <c r="L6">
-        <v>5.778730041730643</v>
+        <v>10.18577821979454</v>
       </c>
       <c r="M6">
-        <v>14.04655191417772</v>
+        <v>19.94059749625931</v>
       </c>
       <c r="N6">
-        <v>13.62308006627796</v>
+        <v>20.21153043010494</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.352424662833677</v>
+        <v>8.329844310280336</v>
       </c>
       <c r="D7">
-        <v>4.06833079540181</v>
+        <v>6.860533545429289</v>
       </c>
       <c r="E7">
-        <v>7.22340259636634</v>
+        <v>12.55544130207572</v>
       </c>
       <c r="F7">
-        <v>28.45073083408573</v>
+        <v>43.19955397445393</v>
       </c>
       <c r="G7">
-        <v>36.44419767984463</v>
+        <v>52.14413148432839</v>
       </c>
       <c r="H7">
-        <v>12.35097808914098</v>
+        <v>20.21479724168809</v>
       </c>
       <c r="I7">
-        <v>21.42323593967709</v>
+        <v>33.38396704575889</v>
       </c>
       <c r="J7">
-        <v>5.923398942026266</v>
+        <v>10.41152154763466</v>
       </c>
       <c r="K7">
-        <v>17.07326243586308</v>
+        <v>18.31709197914228</v>
       </c>
       <c r="L7">
-        <v>5.767233418527327</v>
+        <v>10.17989390558306</v>
       </c>
       <c r="M7">
-        <v>14.24490423605796</v>
+        <v>19.96497042796993</v>
       </c>
       <c r="N7">
-        <v>13.55918974831961</v>
+        <v>20.19151848499305</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.574084421598323</v>
+        <v>8.347558340657182</v>
       </c>
       <c r="D8">
-        <v>4.204642574597637</v>
+        <v>6.871548147738296</v>
       </c>
       <c r="E8">
-        <v>7.249536426303932</v>
+        <v>12.53019705034119</v>
       </c>
       <c r="F8">
-        <v>28.98171673404515</v>
+        <v>43.09242421032068</v>
       </c>
       <c r="G8">
-        <v>37.39490861793385</v>
+        <v>52.03965854976581</v>
       </c>
       <c r="H8">
-        <v>12.36349800513943</v>
+        <v>20.13882416891787</v>
       </c>
       <c r="I8">
-        <v>21.70442017496457</v>
+        <v>33.2849197808269</v>
       </c>
       <c r="J8">
-        <v>5.861838144990646</v>
+        <v>10.38297805882588</v>
       </c>
       <c r="K8">
-        <v>18.55932503336036</v>
+        <v>18.66413423154591</v>
       </c>
       <c r="L8">
-        <v>5.719323572014081</v>
+        <v>10.15550992858003</v>
       </c>
       <c r="M8">
-        <v>15.10120900849751</v>
+        <v>20.07902795793779</v>
       </c>
       <c r="N8">
-        <v>13.28407294057799</v>
+        <v>20.10746914276</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.000872157473509</v>
+        <v>8.390743264154146</v>
       </c>
       <c r="D9">
-        <v>4.467410417282766</v>
+        <v>6.897495878808243</v>
       </c>
       <c r="E9">
-        <v>7.321802234313187</v>
+        <v>12.49087853303274</v>
       </c>
       <c r="F9">
-        <v>30.21388679011407</v>
+        <v>42.96054014582279</v>
       </c>
       <c r="G9">
-        <v>39.52960572335719</v>
+        <v>51.94945587229267</v>
       </c>
       <c r="H9">
-        <v>12.46786970414811</v>
+        <v>20.01835677224314</v>
       </c>
       <c r="I9">
-        <v>22.40260632823286</v>
+        <v>33.14690076035473</v>
       </c>
       <c r="J9">
-        <v>5.752612500140538</v>
+        <v>10.33337936062529</v>
       </c>
       <c r="K9">
-        <v>21.29047796284965</v>
+        <v>19.35156995451064</v>
       </c>
       <c r="L9">
-        <v>5.635550967448371</v>
+        <v>10.11334926910457</v>
       </c>
       <c r="M9">
-        <v>16.69889614721789</v>
+        <v>20.32499715660705</v>
       </c>
       <c r="N9">
-        <v>12.76756148630238</v>
+        <v>19.95785819181177</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.306859397813362</v>
+        <v>8.427468624710968</v>
       </c>
       <c r="D10">
-        <v>4.656171973758201</v>
+        <v>6.919131215007619</v>
       </c>
       <c r="E10">
-        <v>7.388264990343162</v>
+        <v>12.46817185400305</v>
       </c>
       <c r="F10">
-        <v>31.23951263480549</v>
+        <v>42.91159202811544</v>
       </c>
       <c r="G10">
-        <v>41.26369470085137</v>
+        <v>51.95357923163974</v>
       </c>
       <c r="H10">
-        <v>12.5989081153367</v>
+        <v>19.94730664814893</v>
       </c>
       <c r="I10">
-        <v>23.01076315621163</v>
+        <v>33.07997273642889</v>
       </c>
       <c r="J10">
-        <v>5.679426589572031</v>
+        <v>10.30079447672761</v>
       </c>
       <c r="K10">
-        <v>23.26077506406972</v>
+        <v>19.85613060806785</v>
       </c>
       <c r="L10">
-        <v>5.580251825223282</v>
+        <v>10.08579364164016</v>
       </c>
       <c r="M10">
-        <v>17.81396368183456</v>
+        <v>20.51827727062733</v>
       </c>
       <c r="N10">
-        <v>12.40060655939671</v>
+        <v>19.85711765214477</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.44394001191626</v>
+        <v>8.445225353662925</v>
       </c>
       <c r="D11">
-        <v>4.7408397347812</v>
+        <v>6.929514179468383</v>
       </c>
       <c r="E11">
-        <v>7.421523820419836</v>
+        <v>12.45917773853954</v>
       </c>
       <c r="F11">
-        <v>31.73292742689097</v>
+        <v>42.89977880035131</v>
       </c>
       <c r="G11">
-        <v>42.08861142569272</v>
+        <v>51.97080698454226</v>
       </c>
       <c r="H11">
-        <v>12.67155035423788</v>
+        <v>19.91878957977297</v>
       </c>
       <c r="I11">
-        <v>23.30919656282737</v>
+        <v>33.05704769468695</v>
       </c>
       <c r="J11">
-        <v>5.647683830215692</v>
+        <v>10.28680134373195</v>
       </c>
       <c r="K11">
-        <v>24.1124572081505</v>
+        <v>20.08459305355643</v>
       </c>
       <c r="L11">
-        <v>5.556464668115405</v>
+        <v>10.07399445492474</v>
       </c>
       <c r="M11">
-        <v>18.30713133322648</v>
+        <v>20.60870000051689</v>
       </c>
       <c r="N11">
-        <v>12.23605027598919</v>
+        <v>19.81326144430098</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.495512413406901</v>
+        <v>8.452097081587473</v>
       </c>
       <c r="D12">
-        <v>4.772709359066615</v>
+        <v>6.933522098345883</v>
       </c>
       <c r="E12">
-        <v>7.434562913412367</v>
+        <v>12.45596336045072</v>
       </c>
       <c r="F12">
-        <v>31.92368406571805</v>
+        <v>42.8968106978253</v>
       </c>
       <c r="G12">
-        <v>42.40617813194365</v>
+        <v>51.97954030799312</v>
       </c>
       <c r="H12">
-        <v>12.70103319519814</v>
+        <v>19.90853905282727</v>
       </c>
       <c r="I12">
-        <v>23.42542092789335</v>
+        <v>33.04945031439795</v>
       </c>
       <c r="J12">
-        <v>5.635888638372196</v>
+        <v>10.28162135090987</v>
       </c>
       <c r="K12">
-        <v>24.42866431304986</v>
+        <v>20.17087487743938</v>
       </c>
       <c r="L12">
-        <v>5.547655349434735</v>
+        <v>10.06963178910237</v>
       </c>
       <c r="M12">
-        <v>18.49177703413643</v>
+        <v>20.64327930022524</v>
       </c>
       <c r="N12">
-        <v>12.17404985070967</v>
+        <v>19.79693623346073</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.484420830293981</v>
+        <v>8.450610620993288</v>
       </c>
       <c r="D13">
-        <v>4.765854495329143</v>
+        <v>6.93265556319864</v>
       </c>
       <c r="E13">
-        <v>7.431734774167661</v>
+        <v>12.45664712567332</v>
       </c>
       <c r="F13">
-        <v>31.88242642710769</v>
+        <v>42.89738295850075</v>
       </c>
       <c r="G13">
-        <v>42.33755350384047</v>
+        <v>51.97756115119208</v>
       </c>
       <c r="H13">
-        <v>12.69459409429742</v>
+        <v>19.91072228349585</v>
       </c>
       <c r="I13">
-        <v>23.40024567925748</v>
+        <v>33.05103830966232</v>
       </c>
       <c r="J13">
-        <v>5.638418892299588</v>
+        <v>10.28273167367452</v>
       </c>
       <c r="K13">
-        <v>24.36084212442558</v>
+        <v>20.152304084635</v>
       </c>
       <c r="L13">
-        <v>5.549543744417962</v>
+        <v>10.07056668464723</v>
       </c>
       <c r="M13">
-        <v>18.45210499718355</v>
+        <v>20.63581733070043</v>
       </c>
       <c r="N13">
-        <v>12.18738926325003</v>
+        <v>19.80043962952027</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.448189828543353</v>
+        <v>8.445787755778742</v>
       </c>
       <c r="D14">
-        <v>4.743465622206386</v>
+        <v>6.929842397649791</v>
       </c>
       <c r="E14">
-        <v>7.422587584897459</v>
+        <v>12.45890945479811</v>
       </c>
       <c r="F14">
-        <v>31.74854240679538</v>
+        <v>42.89950443515912</v>
       </c>
       <c r="G14">
-        <v>42.1146337788555</v>
+        <v>51.97148119386282</v>
       </c>
       <c r="H14">
-        <v>12.67393576712833</v>
+        <v>19.91793526767113</v>
       </c>
       <c r="I14">
-        <v>23.31869352704273</v>
+        <v>33.0564009201021</v>
       </c>
       <c r="J14">
-        <v>5.646708906966695</v>
+        <v>10.2863728020849</v>
       </c>
       <c r="K14">
-        <v>24.1385974978279</v>
+        <v>20.09169660146593</v>
       </c>
       <c r="L14">
-        <v>5.555735934980338</v>
+        <v>10.07363342512079</v>
       </c>
       <c r="M14">
-        <v>18.32236483944798</v>
+        <v>20.61153820561587</v>
       </c>
       <c r="N14">
-        <v>12.23094334407475</v>
+        <v>19.81191271120439</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.42595251594857</v>
+        <v>8.442852736007525</v>
       </c>
       <c r="D15">
-        <v>4.729726226448978</v>
+        <v>6.928129114549552</v>
       </c>
       <c r="E15">
-        <v>7.417042875552552</v>
+        <v>12.46032011997066</v>
       </c>
       <c r="F15">
-        <v>31.66704546346004</v>
+        <v>42.90099998429218</v>
       </c>
       <c r="G15">
-        <v>41.97876502362116</v>
+        <v>51.96804481541183</v>
       </c>
       <c r="H15">
-        <v>12.66154212771083</v>
+        <v>19.92242486565425</v>
       </c>
       <c r="I15">
-        <v>23.26916147840161</v>
+        <v>33.05982688327098</v>
       </c>
       <c r="J15">
-        <v>5.651816168928861</v>
+        <v>10.28861857022874</v>
       </c>
       <c r="K15">
-        <v>24.00164831827782</v>
+        <v>20.05454026875693</v>
       </c>
       <c r="L15">
-        <v>5.559554713065656</v>
+        <v>10.07552561032164</v>
       </c>
       <c r="M15">
-        <v>18.24261894832197</v>
+        <v>20.59670994498731</v>
       </c>
       <c r="N15">
-        <v>12.25766145710291</v>
+        <v>19.8189770162896</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.29785536057094</v>
+        <v>8.426329027936072</v>
       </c>
       <c r="D16">
-        <v>4.650612838177434</v>
+        <v>6.918463407308792</v>
       </c>
       <c r="E16">
-        <v>7.386153137255866</v>
+        <v>12.46878646623713</v>
       </c>
       <c r="F16">
-        <v>31.20781135454974</v>
+        <v>42.9125746019335</v>
       </c>
       <c r="G16">
-        <v>41.21051013244031</v>
+        <v>51.95276249246006</v>
       </c>
       <c r="H16">
-        <v>12.59443161399164</v>
+        <v>19.94924696072987</v>
       </c>
       <c r="I16">
-        <v>22.99170514861549</v>
+        <v>33.08162249122125</v>
       </c>
       <c r="J16">
-        <v>5.681532422126343</v>
+        <v>10.30172562318296</v>
       </c>
       <c r="K16">
-        <v>23.20422703929218</v>
+        <v>19.84117182399831</v>
       </c>
       <c r="L16">
-        <v>5.581834040087937</v>
+        <v>10.0865795217134</v>
       </c>
       <c r="M16">
-        <v>17.7814431691933</v>
+        <v>20.51241641754422</v>
       </c>
       <c r="N16">
-        <v>12.41140610148724</v>
+        <v>19.86002331455102</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.218705085649911</v>
+        <v>8.416458890730473</v>
       </c>
       <c r="D17">
-        <v>4.601756985351075</v>
+        <v>6.912671184455774</v>
       </c>
       <c r="E17">
-        <v>7.367984802733385</v>
+        <v>12.47432193060842</v>
       </c>
       <c r="F17">
-        <v>30.9329984232181</v>
+        <v>42.92235442788825</v>
       </c>
       <c r="G17">
-        <v>40.74844657077107</v>
+        <v>51.94732133661734</v>
       </c>
       <c r="H17">
-        <v>12.55667083650086</v>
+        <v>19.96667665663297</v>
       </c>
       <c r="I17">
-        <v>22.82713194371413</v>
+        <v>33.0969214703746</v>
       </c>
       <c r="J17">
-        <v>5.70016079717767</v>
+        <v>10.30997862042924</v>
       </c>
       <c r="K17">
-        <v>22.70368342493737</v>
+        <v>19.70994755527222</v>
       </c>
       <c r="L17">
-        <v>5.595853265369215</v>
+        <v>10.09354895656072</v>
       </c>
       <c r="M17">
-        <v>17.49485469828939</v>
+        <v>20.46133016754281</v>
       </c>
       <c r="N17">
-        <v>12.50631184610035</v>
+        <v>19.88570784403547</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.172982531672544</v>
+        <v>8.410880908192887</v>
       </c>
       <c r="D18">
-        <v>4.573544358193698</v>
+        <v>6.90939067037052</v>
       </c>
       <c r="E18">
-        <v>7.3578189476757</v>
+        <v>12.47763149656876</v>
       </c>
       <c r="F18">
-        <v>30.77745781233637</v>
+        <v>42.92896338819238</v>
       </c>
       <c r="G18">
-        <v>40.48607440667158</v>
+        <v>51.94563674465936</v>
       </c>
       <c r="H18">
-        <v>12.53617243050752</v>
+        <v>19.97705973483455</v>
       </c>
       <c r="I18">
-        <v>22.73451906896602</v>
+        <v>33.10642882383698</v>
       </c>
       <c r="J18">
-        <v>5.711021069707224</v>
+        <v>10.31480366538517</v>
       </c>
       <c r="K18">
-        <v>22.41157760222277</v>
+        <v>19.63437516686777</v>
       </c>
       <c r="L18">
-        <v>5.604045475018279</v>
+        <v>10.09762689161601</v>
       </c>
       <c r="M18">
-        <v>17.32869441191601</v>
+        <v>20.43218319129602</v>
       </c>
       <c r="N18">
-        <v>12.56112423539932</v>
+        <v>19.90066651633508</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.157468851765602</v>
+        <v>8.409009413043066</v>
       </c>
       <c r="D19">
-        <v>4.563973447045951</v>
+        <v>6.908288757347182</v>
       </c>
       <c r="E19">
-        <v>7.354425464246753</v>
+        <v>12.47877366542142</v>
       </c>
       <c r="F19">
-        <v>30.72522654342643</v>
+        <v>42.93136996959049</v>
       </c>
       <c r="G19">
-        <v>40.3978228789928</v>
+        <v>51.94531446108606</v>
       </c>
       <c r="H19">
-        <v>12.5294386014193</v>
+        <v>19.98063671041358</v>
       </c>
       <c r="I19">
-        <v>22.70351069381347</v>
+        <v>33.10976933452955</v>
       </c>
       <c r="J19">
-        <v>5.714723138486798</v>
+        <v>10.31645077652536</v>
       </c>
       <c r="K19">
-        <v>22.31194991721796</v>
+        <v>19.60877367106691</v>
       </c>
       <c r="L19">
-        <v>5.60684128146037</v>
+        <v>10.09901952523952</v>
       </c>
       <c r="M19">
-        <v>17.27221116921633</v>
+        <v>20.42235577729848</v>
       </c>
       <c r="N19">
-        <v>12.57972226421319</v>
+        <v>19.90576318348768</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.227151455326874</v>
+        <v>8.417499355398615</v>
       </c>
       <c r="D20">
-        <v>4.606969519759815</v>
+        <v>6.913282508111758</v>
       </c>
       <c r="E20">
-        <v>7.369889381008697</v>
+        <v>12.47371966378131</v>
       </c>
       <c r="F20">
-        <v>30.96199109917351</v>
+        <v>42.92121150447253</v>
       </c>
       <c r="G20">
-        <v>40.79728273149635</v>
+        <v>51.94775098241307</v>
       </c>
       <c r="H20">
-        <v>12.56056348118478</v>
+        <v>19.96478417699505</v>
       </c>
       <c r="I20">
-        <v>22.84443876503491</v>
+        <v>33.09521959635808</v>
       </c>
       <c r="J20">
-        <v>5.698162678177479</v>
+        <v>10.30909199082987</v>
       </c>
       <c r="K20">
-        <v>22.75740172011195</v>
+        <v>19.72392708279312</v>
       </c>
       <c r="L20">
-        <v>5.594347562252521</v>
+        <v>10.09279987894283</v>
       </c>
       <c r="M20">
-        <v>17.5255000332446</v>
+        <v>20.46674406226744</v>
       </c>
       <c r="N20">
-        <v>12.49618586745446</v>
+        <v>19.88295448128618</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.458841134706969</v>
+        <v>8.447200368914082</v>
       </c>
       <c r="D21">
-        <v>4.750047135469545</v>
+        <v>6.930666640380922</v>
       </c>
       <c r="E21">
-        <v>7.425262187636618</v>
+        <v>12.45823976084664</v>
       </c>
       <c r="F21">
-        <v>31.78776082641632</v>
+        <v>42.89884043989988</v>
       </c>
       <c r="G21">
-        <v>42.17996980001045</v>
+        <v>51.97320705290744</v>
       </c>
       <c r="H21">
-        <v>12.67994921575313</v>
+        <v>19.91580174983151</v>
       </c>
       <c r="I21">
-        <v>23.3425594888856</v>
+        <v>33.05479635994085</v>
       </c>
       <c r="J21">
-        <v>5.644267799550113</v>
+        <v>10.28530009085624</v>
       </c>
       <c r="K21">
-        <v>24.20404638296169</v>
+        <v>20.10950539801189</v>
       </c>
       <c r="L21">
-        <v>5.553911741504012</v>
+        <v>10.07272979098341</v>
       </c>
       <c r="M21">
-        <v>18.36053036146025</v>
+        <v>20.61866056612081</v>
       </c>
       <c r="N21">
-        <v>12.21814217379981</v>
+        <v>19.8085351406406</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.608287780162164</v>
+        <v>8.467470589677758</v>
       </c>
       <c r="D22">
-        <v>4.842429176052861</v>
+        <v>6.942471024754387</v>
       </c>
       <c r="E22">
-        <v>7.464048362640627</v>
+        <v>12.4492386985416</v>
       </c>
       <c r="F22">
-        <v>32.3502730541105</v>
+        <v>42.89299411148787</v>
       </c>
       <c r="G22">
-        <v>43.11389241219081</v>
+        <v>52.00272244566366</v>
       </c>
       <c r="H22">
-        <v>12.76953279610125</v>
+        <v>19.88698516411588</v>
       </c>
       <c r="I22">
-        <v>23.68688281416474</v>
+        <v>33.03469563338222</v>
       </c>
       <c r="J22">
-        <v>5.61035780666284</v>
+        <v>10.27044356812363</v>
       </c>
       <c r="K22">
-        <v>25.1128091576235</v>
+        <v>20.3601165979511</v>
       </c>
       <c r="L22">
-        <v>5.528641696330714</v>
+        <v>10.06022716976492</v>
       </c>
       <c r="M22">
-        <v>18.89397300250711</v>
+        <v>20.71990778092564</v>
       </c>
       <c r="N22">
-        <v>12.03823809219548</v>
+        <v>19.76154200473049</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.528715546688077</v>
+        <v>8.456574555186478</v>
       </c>
       <c r="D23">
-        <v>4.793232026115082</v>
+        <v>6.936130847112009</v>
       </c>
       <c r="E23">
-        <v>7.443106513991483</v>
+        <v>12.45394079878125</v>
       </c>
       <c r="F23">
-        <v>32.04794367753332</v>
+        <v>42.89531107523937</v>
       </c>
       <c r="G23">
-        <v>42.61266700212098</v>
+        <v>51.9857910420149</v>
       </c>
       <c r="H23">
-        <v>12.72062925133273</v>
+        <v>19.90207226138642</v>
       </c>
       <c r="I23">
-        <v>23.50136613563134</v>
+        <v>33.04484499436199</v>
       </c>
       <c r="J23">
-        <v>5.628335176202413</v>
+        <v>10.27830951957762</v>
       </c>
       <c r="K23">
-        <v>24.63110583016077</v>
+        <v>20.22651287008625</v>
       </c>
       <c r="L23">
-        <v>5.542022344310644</v>
+        <v>10.06684397506692</v>
       </c>
       <c r="M23">
-        <v>18.61041074711651</v>
+        <v>20.66569791246173</v>
       </c>
       <c r="N23">
-        <v>12.13409978560301</v>
+        <v>19.78647309496444</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.223333528069141</v>
+        <v>8.417028660528612</v>
       </c>
       <c r="D24">
-        <v>4.6046133199947</v>
+        <v>6.91300597435444</v>
       </c>
       <c r="E24">
-        <v>7.369027451751813</v>
+        <v>12.47399155250944</v>
       </c>
       <c r="F24">
-        <v>30.94887587349716</v>
+        <v>42.92172514762537</v>
       </c>
       <c r="G24">
-        <v>40.77519370427455</v>
+        <v>51.94755224287653</v>
       </c>
       <c r="H24">
-        <v>12.55879985287126</v>
+        <v>19.96563863786832</v>
       </c>
       <c r="I24">
-        <v>22.83660812012933</v>
+        <v>33.09598679660311</v>
       </c>
       <c r="J24">
-        <v>5.699065558943916</v>
+        <v>10.30949258594614</v>
       </c>
       <c r="K24">
-        <v>22.73312919468628</v>
+        <v>19.71760733665001</v>
       </c>
       <c r="L24">
-        <v>5.595027878441355</v>
+        <v>10.09313831538623</v>
       </c>
       <c r="M24">
-        <v>17.51164962147257</v>
+        <v>20.4642957436192</v>
       </c>
       <c r="N24">
-        <v>12.50076304219693</v>
+        <v>19.88419867746617</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.886564706873142</v>
+        <v>8.37817131041249</v>
       </c>
       <c r="D25">
-        <v>4.396977533682967</v>
+        <v>6.890018790032909</v>
       </c>
       <c r="E25">
-        <v>7.299944704887916</v>
+        <v>12.5004277199333</v>
       </c>
       <c r="F25">
-        <v>29.85966567327153</v>
+        <v>42.98781514750002</v>
       </c>
       <c r="G25">
-        <v>38.92302547882437</v>
+        <v>51.96152403888718</v>
       </c>
       <c r="H25">
-        <v>12.43050169465359</v>
+        <v>20.04788581591595</v>
       </c>
       <c r="I25">
-        <v>22.19739537208078</v>
+        <v>33.1781978464305</v>
       </c>
       <c r="J25">
-        <v>5.780925730471833</v>
+        <v>10.34611786801732</v>
       </c>
       <c r="K25">
-        <v>20.52839111867891</v>
+        <v>19.16535295209708</v>
       </c>
       <c r="L25">
-        <v>5.657120134112144</v>
+        <v>10.12415225416217</v>
       </c>
       <c r="M25">
-        <v>16.27645167800365</v>
+        <v>20.25617162530814</v>
       </c>
       <c r="N25">
-        <v>12.90498078689896</v>
+        <v>19.99671337016487</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_106/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.352934928600247</v>
+        <v>5.633723989058393</v>
       </c>
       <c r="D2">
-        <v>6.874829620302777</v>
+        <v>4.241331134531956</v>
       </c>
       <c r="E2">
-        <v>12.52404744410618</v>
+        <v>7.258018875350104</v>
       </c>
       <c r="F2">
-        <v>43.06867727401279</v>
+        <v>29.13833383058371</v>
       </c>
       <c r="G2">
-        <v>52.01908916136161</v>
+        <v>37.67072971186195</v>
       </c>
       <c r="H2">
-        <v>20.1201661971888</v>
+        <v>12.37208094390481</v>
       </c>
       <c r="I2">
-        <v>33.26187852372878</v>
+        <v>21.79031012196931</v>
       </c>
       <c r="J2">
-        <v>10.37567679562269</v>
+        <v>5.845934729789775</v>
       </c>
       <c r="K2">
-        <v>18.75880835312677</v>
+        <v>18.94513048176101</v>
       </c>
       <c r="L2">
-        <v>10.14928694085233</v>
+        <v>5.707029967386501</v>
       </c>
       <c r="M2">
-        <v>20.11147755274974</v>
+        <v>15.32811103774741</v>
       </c>
       <c r="N2">
-        <v>20.08572880150762</v>
+        <v>13.21113950331173</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.33798645102128</v>
+        <v>5.460236474252969</v>
       </c>
       <c r="D3">
-        <v>6.865644555026096</v>
+        <v>4.134624856362187</v>
       </c>
       <c r="E3">
-        <v>12.54265619072867</v>
+        <v>7.234997338839546</v>
       </c>
       <c r="F3">
-        <v>43.14347315040508</v>
+        <v>28.69847776921112</v>
       </c>
       <c r="G3">
-        <v>52.08742958452556</v>
+        <v>36.89126428419609</v>
       </c>
       <c r="H3">
-        <v>20.17643991615019</v>
+        <v>12.35309074890353</v>
       </c>
       <c r="I3">
-        <v>33.33296213345718</v>
+        <v>21.55218567263995</v>
       </c>
       <c r="J3">
-        <v>10.39733661833669</v>
+        <v>5.892929131937748</v>
       </c>
       <c r="K3">
-        <v>18.48488214230177</v>
+        <v>17.80718213842185</v>
       </c>
       <c r="L3">
-        <v>10.16776491525243</v>
+        <v>5.743455413884456</v>
       </c>
       <c r="M3">
-        <v>20.01908539897646</v>
+        <v>14.66412588369391</v>
       </c>
       <c r="N3">
-        <v>20.14993719565026</v>
+        <v>13.42444687406211</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.329886249732555</v>
+        <v>5.353015117286681</v>
       </c>
       <c r="D4">
-        <v>6.860560160050184</v>
+        <v>4.068693867836361</v>
       </c>
       <c r="E4">
-        <v>12.55536838191547</v>
+        <v>7.223459912505481</v>
       </c>
       <c r="F4">
-        <v>43.19922430488381</v>
+        <v>28.45202993990027</v>
       </c>
       <c r="G4">
-        <v>52.14378767728983</v>
+        <v>36.44656170481151</v>
       </c>
       <c r="H4">
-        <v>20.21457913421916</v>
+        <v>12.35096787353658</v>
       </c>
       <c r="I4">
-        <v>33.38367162493798</v>
+        <v>21.42389934673811</v>
       </c>
       <c r="J4">
-        <v>10.41144210932979</v>
+        <v>5.923228994534553</v>
       </c>
       <c r="K4">
-        <v>18.31800532289172</v>
+        <v>17.07734584803947</v>
       </c>
       <c r="L4">
-        <v>10.17982591920729</v>
+        <v>5.767100437207427</v>
       </c>
       <c r="M4">
-        <v>19.96525922771995</v>
+        <v>14.24721555601903</v>
       </c>
       <c r="N4">
-        <v>20.19128665618568</v>
+        <v>13.55844595387893</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.326858791069732</v>
+        <v>5.309204212404177</v>
       </c>
       <c r="D5">
-        <v>6.858629140813188</v>
+        <v>4.041753678851647</v>
       </c>
       <c r="E5">
-        <v>12.5608726453083</v>
+        <v>7.219402458445842</v>
       </c>
       <c r="F5">
-        <v>43.22440848078037</v>
+        <v>28.35744806843131</v>
       </c>
       <c r="G5">
-        <v>52.17036290358508</v>
+        <v>36.2738048933802</v>
       </c>
       <c r="H5">
-        <v>20.23102188462809</v>
+        <v>12.35240857599442</v>
       </c>
       <c r="I5">
-        <v>33.40610849431925</v>
+        <v>21.37601619350619</v>
       </c>
       <c r="J5">
-        <v>10.4173934506012</v>
+        <v>5.935939367841246</v>
       </c>
       <c r="K5">
-        <v>18.25041322428799</v>
+        <v>16.77229275733709</v>
       </c>
       <c r="L5">
-        <v>10.18492123893362</v>
+        <v>5.77705731296364</v>
       </c>
       <c r="M5">
-        <v>19.94407039834718</v>
+        <v>14.07522922593787</v>
       </c>
       <c r="N5">
-        <v>20.20862246292575</v>
+        <v>13.61383485148176</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.326372663227884</v>
+        <v>5.301924148104794</v>
       </c>
       <c r="D6">
-        <v>6.858317043860901</v>
+        <v>4.037276826204915</v>
       </c>
       <c r="E6">
-        <v>12.56180620320012</v>
+        <v>7.218767354587201</v>
       </c>
       <c r="F6">
-        <v>43.2287390002342</v>
+        <v>28.34209295471311</v>
       </c>
       <c r="G6">
-        <v>52.17499330104951</v>
+        <v>36.24562757398977</v>
       </c>
       <c r="H6">
-        <v>20.23380655394692</v>
+        <v>12.35278437188924</v>
       </c>
       <c r="I6">
-        <v>33.40994104300375</v>
+        <v>21.36832718458318</v>
       </c>
       <c r="J6">
-        <v>10.41839395603495</v>
+        <v>5.938071826052887</v>
       </c>
       <c r="K6">
-        <v>18.23921682427024</v>
+        <v>16.72118413856406</v>
       </c>
       <c r="L6">
-        <v>10.18577821979454</v>
+        <v>5.778730041730769</v>
       </c>
       <c r="M6">
-        <v>19.94059749625931</v>
+        <v>14.04655191417772</v>
       </c>
       <c r="N6">
-        <v>20.21153043010494</v>
+        <v>13.62308006627795</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.329844310280336</v>
+        <v>5.35242466283341</v>
       </c>
       <c r="D7">
-        <v>6.860533545429289</v>
+        <v>4.068330795401714</v>
       </c>
       <c r="E7">
-        <v>12.55544130207572</v>
+        <v>7.223402596366105</v>
       </c>
       <c r="F7">
-        <v>43.19955397445393</v>
+        <v>28.45073083408591</v>
       </c>
       <c r="G7">
-        <v>52.14413148432839</v>
+        <v>36.44419767984486</v>
       </c>
       <c r="H7">
-        <v>20.21479724168809</v>
+        <v>12.35097808914108</v>
       </c>
       <c r="I7">
-        <v>33.38396704575889</v>
+        <v>21.42323593967718</v>
       </c>
       <c r="J7">
-        <v>10.41152154763466</v>
+        <v>5.923398942026168</v>
       </c>
       <c r="K7">
-        <v>18.31709197914228</v>
+        <v>17.07326243586309</v>
       </c>
       <c r="L7">
-        <v>10.17989390558306</v>
+        <v>5.767233418527264</v>
       </c>
       <c r="M7">
-        <v>19.96497042796993</v>
+        <v>14.24490423605794</v>
       </c>
       <c r="N7">
-        <v>20.19151848499305</v>
+        <v>13.55918974831971</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.347558340657182</v>
+        <v>5.574084421598493</v>
       </c>
       <c r="D8">
-        <v>6.871548147738296</v>
+        <v>4.204642574597723</v>
       </c>
       <c r="E8">
-        <v>12.53019705034119</v>
+        <v>7.249536426304044</v>
       </c>
       <c r="F8">
-        <v>43.09242421032068</v>
+        <v>28.98171673404515</v>
       </c>
       <c r="G8">
-        <v>52.03965854976581</v>
+        <v>37.39490861793365</v>
       </c>
       <c r="H8">
-        <v>20.13882416891787</v>
+        <v>12.36349800513944</v>
       </c>
       <c r="I8">
-        <v>33.2849197808269</v>
+        <v>21.70442017496454</v>
       </c>
       <c r="J8">
-        <v>10.38297805882588</v>
+        <v>5.861838144990682</v>
       </c>
       <c r="K8">
-        <v>18.66413423154591</v>
+        <v>18.55932503336034</v>
       </c>
       <c r="L8">
-        <v>10.15550992858003</v>
+        <v>5.719323572014145</v>
       </c>
       <c r="M8">
-        <v>20.07902795793779</v>
+        <v>15.10120900849751</v>
       </c>
       <c r="N8">
-        <v>20.10746914276</v>
+        <v>13.28407294057802</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.390743264154146</v>
+        <v>6.000872157473568</v>
       </c>
       <c r="D9">
-        <v>6.897495878808243</v>
+        <v>4.467410417282854</v>
       </c>
       <c r="E9">
-        <v>12.49087853303274</v>
+        <v>7.321802234313257</v>
       </c>
       <c r="F9">
-        <v>42.96054014582279</v>
+        <v>30.21388679011426</v>
       </c>
       <c r="G9">
-        <v>51.94945587229267</v>
+        <v>39.52960572335748</v>
       </c>
       <c r="H9">
-        <v>20.01835677224314</v>
+        <v>12.46786970414823</v>
       </c>
       <c r="I9">
-        <v>33.14690076035473</v>
+        <v>22.40260632823302</v>
       </c>
       <c r="J9">
-        <v>10.33337936062529</v>
+        <v>5.752612500140508</v>
       </c>
       <c r="K9">
-        <v>19.35156995451064</v>
+        <v>21.29047796284954</v>
       </c>
       <c r="L9">
-        <v>10.11334926910457</v>
+        <v>5.635550967448316</v>
       </c>
       <c r="M9">
-        <v>20.32499715660705</v>
+        <v>16.69889614721793</v>
       </c>
       <c r="N9">
-        <v>19.95785819181177</v>
+        <v>12.76756148630252</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.427468624710968</v>
+        <v>6.306859397813361</v>
       </c>
       <c r="D10">
-        <v>6.919131215007619</v>
+        <v>4.656171973758325</v>
       </c>
       <c r="E10">
-        <v>12.46817185400305</v>
+        <v>7.38826499034326</v>
       </c>
       <c r="F10">
-        <v>42.91159202811544</v>
+        <v>31.2395126348055</v>
       </c>
       <c r="G10">
-        <v>51.95357923163974</v>
+        <v>41.26369470085132</v>
       </c>
       <c r="H10">
-        <v>19.94730664814893</v>
+        <v>12.59890811533669</v>
       </c>
       <c r="I10">
-        <v>33.07997273642889</v>
+        <v>23.01076315621159</v>
       </c>
       <c r="J10">
-        <v>10.30079447672761</v>
+        <v>5.679426589572</v>
       </c>
       <c r="K10">
-        <v>19.85613060806785</v>
+        <v>23.26077506406974</v>
       </c>
       <c r="L10">
-        <v>10.08579364164016</v>
+        <v>5.580251825223405</v>
       </c>
       <c r="M10">
-        <v>20.51827727062733</v>
+        <v>17.81396368183456</v>
       </c>
       <c r="N10">
-        <v>19.85711765214477</v>
+        <v>12.40060655939674</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.445225353662925</v>
+        <v>6.443940011916342</v>
       </c>
       <c r="D11">
-        <v>6.929514179468383</v>
+        <v>4.740839734781348</v>
       </c>
       <c r="E11">
-        <v>12.45917773853954</v>
+        <v>7.421523820419891</v>
       </c>
       <c r="F11">
-        <v>42.89977880035131</v>
+        <v>31.73292742689088</v>
       </c>
       <c r="G11">
-        <v>51.97080698454226</v>
+        <v>42.08861142569253</v>
       </c>
       <c r="H11">
-        <v>19.91878957977297</v>
+        <v>12.67155035423788</v>
       </c>
       <c r="I11">
-        <v>33.05704769468695</v>
+        <v>23.30919656282731</v>
       </c>
       <c r="J11">
-        <v>10.28680134373195</v>
+        <v>5.647683830215692</v>
       </c>
       <c r="K11">
-        <v>20.08459305355643</v>
+        <v>24.11245720815054</v>
       </c>
       <c r="L11">
-        <v>10.07399445492474</v>
+        <v>5.556464668115435</v>
       </c>
       <c r="M11">
-        <v>20.60870000051689</v>
+        <v>18.30713133322647</v>
       </c>
       <c r="N11">
-        <v>19.81326144430098</v>
+        <v>12.23605027598916</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.452097081587473</v>
+        <v>6.495512413406901</v>
       </c>
       <c r="D12">
-        <v>6.933522098345883</v>
+        <v>4.772709359066706</v>
       </c>
       <c r="E12">
-        <v>12.45596336045072</v>
+        <v>7.434562913412416</v>
       </c>
       <c r="F12">
-        <v>42.8968106978253</v>
+        <v>31.92368406571801</v>
       </c>
       <c r="G12">
-        <v>51.97954030799312</v>
+        <v>42.40617813194355</v>
       </c>
       <c r="H12">
-        <v>19.90853905282727</v>
+        <v>12.70103319519813</v>
       </c>
       <c r="I12">
-        <v>33.04945031439795</v>
+        <v>23.42542092789332</v>
       </c>
       <c r="J12">
-        <v>10.28162135090987</v>
+        <v>5.635888638372196</v>
       </c>
       <c r="K12">
-        <v>20.17087487743938</v>
+        <v>24.42866431304984</v>
       </c>
       <c r="L12">
-        <v>10.06963178910237</v>
+        <v>5.54765534943471</v>
       </c>
       <c r="M12">
-        <v>20.64327930022524</v>
+        <v>18.49177703413642</v>
       </c>
       <c r="N12">
-        <v>19.79693623346073</v>
+        <v>12.17404985070967</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.450610620993288</v>
+        <v>6.484420830293964</v>
       </c>
       <c r="D13">
-        <v>6.93265556319864</v>
+        <v>4.76585449532909</v>
       </c>
       <c r="E13">
-        <v>12.45664712567332</v>
+        <v>7.431734774167712</v>
       </c>
       <c r="F13">
-        <v>42.89738295850075</v>
+        <v>31.88242642710775</v>
       </c>
       <c r="G13">
-        <v>51.97756115119208</v>
+        <v>42.33755350384057</v>
       </c>
       <c r="H13">
-        <v>19.91072228349585</v>
+        <v>12.69459409429749</v>
       </c>
       <c r="I13">
-        <v>33.05103830966232</v>
+        <v>23.40024567925755</v>
       </c>
       <c r="J13">
-        <v>10.28273167367452</v>
+        <v>5.638418892299705</v>
       </c>
       <c r="K13">
-        <v>20.152304084635</v>
+        <v>24.36084212442556</v>
       </c>
       <c r="L13">
-        <v>10.07056668464723</v>
+        <v>5.549543744417959</v>
       </c>
       <c r="M13">
-        <v>20.63581733070043</v>
+        <v>18.45210499718357</v>
       </c>
       <c r="N13">
-        <v>19.80043962952027</v>
+        <v>12.18738926325007</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.445787755778742</v>
+        <v>6.4481898285434</v>
       </c>
       <c r="D14">
-        <v>6.929842397649791</v>
+        <v>4.743465622206386</v>
       </c>
       <c r="E14">
-        <v>12.45890945479811</v>
+        <v>7.422587584897501</v>
       </c>
       <c r="F14">
-        <v>42.89950443515912</v>
+        <v>31.74854240679531</v>
       </c>
       <c r="G14">
-        <v>51.97148119386282</v>
+        <v>42.11463377885543</v>
       </c>
       <c r="H14">
-        <v>19.91793526767113</v>
+        <v>12.67393576712834</v>
       </c>
       <c r="I14">
-        <v>33.0564009201021</v>
+        <v>23.3186935270427</v>
       </c>
       <c r="J14">
-        <v>10.2863728020849</v>
+        <v>5.646708906966751</v>
       </c>
       <c r="K14">
-        <v>20.09169660146593</v>
+        <v>24.13859749782791</v>
       </c>
       <c r="L14">
-        <v>10.07363342512079</v>
+        <v>5.555735934980367</v>
       </c>
       <c r="M14">
-        <v>20.61153820561587</v>
+        <v>18.32236483944799</v>
       </c>
       <c r="N14">
-        <v>19.81191271120439</v>
+        <v>12.23094334407475</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.442852736007525</v>
+        <v>6.425952515948493</v>
       </c>
       <c r="D15">
-        <v>6.928129114549552</v>
+        <v>4.729726226448994</v>
       </c>
       <c r="E15">
-        <v>12.46032011997066</v>
+        <v>7.417042875552493</v>
       </c>
       <c r="F15">
-        <v>42.90099998429218</v>
+        <v>31.6670454634601</v>
       </c>
       <c r="G15">
-        <v>51.96804481541183</v>
+        <v>41.97876502362126</v>
       </c>
       <c r="H15">
-        <v>19.92242486565425</v>
+        <v>12.66154212771086</v>
       </c>
       <c r="I15">
-        <v>33.05982688327098</v>
+        <v>23.26916147840165</v>
       </c>
       <c r="J15">
-        <v>10.28861857022874</v>
+        <v>5.651816168928795</v>
       </c>
       <c r="K15">
-        <v>20.05454026875693</v>
+        <v>24.0016483182778</v>
       </c>
       <c r="L15">
-        <v>10.07552561032164</v>
+        <v>5.559554713065595</v>
       </c>
       <c r="M15">
-        <v>20.59670994498731</v>
+        <v>18.24261894832198</v>
       </c>
       <c r="N15">
-        <v>19.8189770162896</v>
+        <v>12.25766145710298</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.426329027936072</v>
+        <v>6.297855360570963</v>
       </c>
       <c r="D16">
-        <v>6.918463407308792</v>
+        <v>4.650612838177447</v>
       </c>
       <c r="E16">
-        <v>12.46878646623713</v>
+        <v>7.386153137255867</v>
       </c>
       <c r="F16">
-        <v>42.9125746019335</v>
+        <v>31.20781135454972</v>
       </c>
       <c r="G16">
-        <v>51.95276249246006</v>
+        <v>41.2105101324403</v>
       </c>
       <c r="H16">
-        <v>19.94924696072987</v>
+        <v>12.59443161399166</v>
       </c>
       <c r="I16">
-        <v>33.08162249122125</v>
+        <v>22.99170514861549</v>
       </c>
       <c r="J16">
-        <v>10.30172562318296</v>
+        <v>5.681532422126341</v>
       </c>
       <c r="K16">
-        <v>19.84117182399831</v>
+        <v>23.20422703929218</v>
       </c>
       <c r="L16">
-        <v>10.0865795217134</v>
+        <v>5.581834040087971</v>
       </c>
       <c r="M16">
-        <v>20.51241641754422</v>
+        <v>17.78144316919331</v>
       </c>
       <c r="N16">
-        <v>19.86002331455102</v>
+        <v>12.41140610148721</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.416458890730473</v>
+        <v>6.218705085649917</v>
       </c>
       <c r="D17">
-        <v>6.912671184455774</v>
+        <v>4.601756985351124</v>
       </c>
       <c r="E17">
-        <v>12.47432193060842</v>
+        <v>7.367984802733367</v>
       </c>
       <c r="F17">
-        <v>42.92235442788825</v>
+        <v>30.93299842321805</v>
       </c>
       <c r="G17">
-        <v>51.94732133661734</v>
+        <v>40.74844657077094</v>
       </c>
       <c r="H17">
-        <v>19.96667665663297</v>
+        <v>12.55667083650091</v>
       </c>
       <c r="I17">
-        <v>33.0969214703746</v>
+        <v>22.8271319437141</v>
       </c>
       <c r="J17">
-        <v>10.30997862042924</v>
+        <v>5.700160797177668</v>
       </c>
       <c r="K17">
-        <v>19.70994755527222</v>
+        <v>22.70368342493738</v>
       </c>
       <c r="L17">
-        <v>10.09354895656072</v>
+        <v>5.595853265369209</v>
       </c>
       <c r="M17">
-        <v>20.46133016754281</v>
+        <v>17.49485469828938</v>
       </c>
       <c r="N17">
-        <v>19.88570784403547</v>
+        <v>12.50631184610035</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.410880908192887</v>
+        <v>6.17298253167237</v>
       </c>
       <c r="D18">
-        <v>6.90939067037052</v>
+        <v>4.573544358193649</v>
       </c>
       <c r="E18">
-        <v>12.47763149656876</v>
+        <v>7.35781894767565</v>
       </c>
       <c r="F18">
-        <v>42.92896338819238</v>
+        <v>30.77745781233641</v>
       </c>
       <c r="G18">
-        <v>51.94563674465936</v>
+        <v>40.48607440667165</v>
       </c>
       <c r="H18">
-        <v>19.97705973483455</v>
+        <v>12.53617243050752</v>
       </c>
       <c r="I18">
-        <v>33.10642882383698</v>
+        <v>22.73451906896599</v>
       </c>
       <c r="J18">
-        <v>10.31480366538517</v>
+        <v>5.711021069707161</v>
       </c>
       <c r="K18">
-        <v>19.63437516686777</v>
+        <v>22.41157760222276</v>
       </c>
       <c r="L18">
-        <v>10.09762689161601</v>
+        <v>5.604045475018336</v>
       </c>
       <c r="M18">
-        <v>20.43218319129602</v>
+        <v>17.32869441191601</v>
       </c>
       <c r="N18">
-        <v>19.90066651633508</v>
+        <v>12.56112423539932</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.409009413043066</v>
+        <v>6.157468851765552</v>
       </c>
       <c r="D19">
-        <v>6.908288757347182</v>
+        <v>4.56397344704588</v>
       </c>
       <c r="E19">
-        <v>12.47877366542142</v>
+        <v>7.35442546424665</v>
       </c>
       <c r="F19">
-        <v>42.93136996959049</v>
+        <v>30.72522654342654</v>
       </c>
       <c r="G19">
-        <v>51.94531446108606</v>
+        <v>40.39782287899291</v>
       </c>
       <c r="H19">
-        <v>19.98063671041358</v>
+        <v>12.52943860141939</v>
       </c>
       <c r="I19">
-        <v>33.10976933452955</v>
+        <v>22.70351069381356</v>
       </c>
       <c r="J19">
-        <v>10.31645077652536</v>
+        <v>5.714723138486793</v>
       </c>
       <c r="K19">
-        <v>19.60877367106691</v>
+        <v>22.31194991721792</v>
       </c>
       <c r="L19">
-        <v>10.09901952523952</v>
+        <v>5.606841281460337</v>
       </c>
       <c r="M19">
-        <v>20.42235577729848</v>
+        <v>17.27221116921633</v>
       </c>
       <c r="N19">
-        <v>19.90576318348768</v>
+        <v>12.5797222642133</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.417499355398615</v>
+        <v>6.227151455326661</v>
       </c>
       <c r="D20">
-        <v>6.913282508111758</v>
+        <v>4.606969519759863</v>
       </c>
       <c r="E20">
-        <v>12.47371966378131</v>
+        <v>7.369889381008702</v>
       </c>
       <c r="F20">
-        <v>42.92121150447253</v>
+        <v>30.96199109917345</v>
       </c>
       <c r="G20">
-        <v>51.94775098241307</v>
+        <v>40.79728273149625</v>
       </c>
       <c r="H20">
-        <v>19.96478417699505</v>
+        <v>12.5605634811847</v>
       </c>
       <c r="I20">
-        <v>33.09521959635808</v>
+        <v>22.84443876503482</v>
       </c>
       <c r="J20">
-        <v>10.30909199082987</v>
+        <v>5.698162678177447</v>
       </c>
       <c r="K20">
-        <v>19.72392708279312</v>
+        <v>22.757401720112</v>
       </c>
       <c r="L20">
-        <v>10.09279987894283</v>
+        <v>5.594347562252527</v>
       </c>
       <c r="M20">
-        <v>20.46674406226744</v>
+        <v>17.52550003324458</v>
       </c>
       <c r="N20">
-        <v>19.88295448128618</v>
+        <v>12.49618586745439</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.447200368914082</v>
+        <v>6.458841134706993</v>
       </c>
       <c r="D21">
-        <v>6.930666640380922</v>
+        <v>4.750047135469431</v>
       </c>
       <c r="E21">
-        <v>12.45823976084664</v>
+        <v>7.425262187636554</v>
       </c>
       <c r="F21">
-        <v>42.89884043989988</v>
+        <v>31.7877608264163</v>
       </c>
       <c r="G21">
-        <v>51.97320705290744</v>
+        <v>42.17996980001051</v>
       </c>
       <c r="H21">
-        <v>19.91580174983151</v>
+        <v>12.6799492157532</v>
       </c>
       <c r="I21">
-        <v>33.05479635994085</v>
+        <v>23.34255948888563</v>
       </c>
       <c r="J21">
-        <v>10.28530009085624</v>
+        <v>5.644267799550142</v>
       </c>
       <c r="K21">
-        <v>20.10950539801189</v>
+        <v>24.20404638296165</v>
       </c>
       <c r="L21">
-        <v>10.07272979098341</v>
+        <v>5.553911741503949</v>
       </c>
       <c r="M21">
-        <v>20.61866056612081</v>
+        <v>18.36053036146023</v>
       </c>
       <c r="N21">
-        <v>19.8085351406406</v>
+        <v>12.21814217379984</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.467470589677758</v>
+        <v>6.608287780162206</v>
       </c>
       <c r="D22">
-        <v>6.942471024754387</v>
+        <v>4.842429176052907</v>
       </c>
       <c r="E22">
-        <v>12.4492386985416</v>
+        <v>7.46404836264073</v>
       </c>
       <c r="F22">
-        <v>42.89299411148787</v>
+        <v>32.35027305411071</v>
       </c>
       <c r="G22">
-        <v>52.00272244566366</v>
+        <v>43.11389241219102</v>
       </c>
       <c r="H22">
-        <v>19.88698516411588</v>
+        <v>12.76953279610127</v>
       </c>
       <c r="I22">
-        <v>33.03469563338222</v>
+        <v>23.68688281416492</v>
       </c>
       <c r="J22">
-        <v>10.27044356812363</v>
+        <v>5.610357806662957</v>
       </c>
       <c r="K22">
-        <v>20.3601165979511</v>
+        <v>25.11280915762338</v>
       </c>
       <c r="L22">
-        <v>10.06022716976492</v>
+        <v>5.528641696330808</v>
       </c>
       <c r="M22">
-        <v>20.71990778092564</v>
+        <v>18.89397300250716</v>
       </c>
       <c r="N22">
-        <v>19.76154200473049</v>
+        <v>12.03823809219565</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.456574555186478</v>
+        <v>6.528715546688063</v>
       </c>
       <c r="D23">
-        <v>6.936130847112009</v>
+        <v>4.793232026115028</v>
       </c>
       <c r="E23">
-        <v>12.45394079878125</v>
+        <v>7.443106513991435</v>
       </c>
       <c r="F23">
-        <v>42.89531107523937</v>
+        <v>32.04794367753342</v>
       </c>
       <c r="G23">
-        <v>51.9857910420149</v>
+        <v>42.61266700212112</v>
       </c>
       <c r="H23">
-        <v>19.90207226138642</v>
+        <v>12.72062925133285</v>
       </c>
       <c r="I23">
-        <v>33.04484499436199</v>
+        <v>23.50136613563145</v>
       </c>
       <c r="J23">
-        <v>10.27830951957762</v>
+        <v>5.628335176202418</v>
       </c>
       <c r="K23">
-        <v>20.22651287008625</v>
+        <v>24.63110583016078</v>
       </c>
       <c r="L23">
-        <v>10.06684397506692</v>
+        <v>5.542022344310612</v>
       </c>
       <c r="M23">
-        <v>20.66569791246173</v>
+        <v>18.61041074711654</v>
       </c>
       <c r="N23">
-        <v>19.78647309496444</v>
+        <v>12.13409978560311</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.417028660528612</v>
+        <v>6.223333528069104</v>
       </c>
       <c r="D24">
-        <v>6.91300597435444</v>
+        <v>4.604613319994592</v>
       </c>
       <c r="E24">
-        <v>12.47399155250944</v>
+        <v>7.369027451751871</v>
       </c>
       <c r="F24">
-        <v>42.92172514762537</v>
+        <v>30.94887587349719</v>
       </c>
       <c r="G24">
-        <v>51.94755224287653</v>
+        <v>40.77519370427463</v>
       </c>
       <c r="H24">
-        <v>19.96563863786832</v>
+        <v>12.55879985287126</v>
       </c>
       <c r="I24">
-        <v>33.09598679660311</v>
+        <v>22.83660812012938</v>
       </c>
       <c r="J24">
-        <v>10.30949258594614</v>
+        <v>5.699065558944003</v>
       </c>
       <c r="K24">
-        <v>19.71760733665001</v>
+        <v>22.73312919468625</v>
       </c>
       <c r="L24">
-        <v>10.09313831538623</v>
+        <v>5.595027878441415</v>
       </c>
       <c r="M24">
-        <v>20.4642957436192</v>
+        <v>17.51164962147259</v>
       </c>
       <c r="N24">
-        <v>19.88419867746617</v>
+        <v>12.50076304219693</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.37817131041249</v>
+        <v>5.886564706873082</v>
       </c>
       <c r="D25">
-        <v>6.890018790032909</v>
+        <v>4.396977533682915</v>
       </c>
       <c r="E25">
-        <v>12.5004277199333</v>
+        <v>7.299944704887913</v>
       </c>
       <c r="F25">
-        <v>42.98781514750002</v>
+        <v>29.85966567327156</v>
       </c>
       <c r="G25">
-        <v>51.96152403888718</v>
+        <v>38.92302547882438</v>
       </c>
       <c r="H25">
-        <v>20.04788581591595</v>
+        <v>12.43050169465364</v>
       </c>
       <c r="I25">
-        <v>33.1781978464305</v>
+        <v>22.19739537208078</v>
       </c>
       <c r="J25">
-        <v>10.34611786801732</v>
+        <v>5.780925730471834</v>
       </c>
       <c r="K25">
-        <v>19.16535295209708</v>
+        <v>20.52839111867891</v>
       </c>
       <c r="L25">
-        <v>10.12415225416217</v>
+        <v>5.657120134112207</v>
       </c>
       <c r="M25">
-        <v>20.25617162530814</v>
+        <v>16.27645167800366</v>
       </c>
       <c r="N25">
-        <v>19.99671337016487</v>
+        <v>12.90498078689896</v>
       </c>
       <c r="O25">
         <v>0</v>
